--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121119-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121119-1.xlsx_with_dialog_acts.xlsx
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3545,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4553,12 +4553,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5141,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5645,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5771,12 +5771,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6237,12 +6237,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7333,12 +7333,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7753,12 +7753,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7841,12 +7841,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8013,12 +8013,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8647,12 +8647,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8689,12 +8689,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8731,12 +8731,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9281,12 +9281,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10461,12 +10461,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10549,12 +10549,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10675,12 +10675,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10977,12 +10977,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11019,12 +11019,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11103,12 +11103,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11311,12 +11311,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11353,12 +11353,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11945,12 +11945,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11987,12 +11987,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12029,12 +12029,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12113,12 +12113,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13461,12 +13461,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14225,12 +14225,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14439,12 +14439,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15367,12 +15367,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15581,12 +15581,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16303,12 +16303,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16555,12 +16555,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16807,12 +16807,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16849,12 +16849,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16933,12 +16933,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17017,12 +17017,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17395,12 +17395,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17437,12 +17437,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17689,12 +17689,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17857,12 +17857,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17983,12 +17983,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18151,12 +18151,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18491,12 +18491,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19331,12 +19331,12 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19835,12 +19835,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20045,12 +20045,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20211,12 +20211,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20421,12 +20421,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20463,12 +20463,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20589,12 +20589,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21005,12 +21005,12 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21177,12 +21177,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21345,12 +21345,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
